--- a/excel/fvi/A/FVI_9월.xlsx
+++ b/excel/fvi/A/FVI_9월.xlsx
@@ -18693,7 +18693,11 @@
       <c r="O7" s="90" t="n"/>
       <c r="P7" s="90" t="n"/>
       <c r="Q7" s="90" t="n"/>
-      <c r="R7" s="90" t="n"/>
+      <c r="R7" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S7" s="90" t="n"/>
       <c r="T7" s="90" t="n"/>
       <c r="U7" s="90" t="n"/>
@@ -18802,7 +18806,11 @@
       <c r="O9" s="90" t="n"/>
       <c r="P9" s="90" t="n"/>
       <c r="Q9" s="90" t="n"/>
-      <c r="R9" s="90" t="n"/>
+      <c r="R9" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S9" s="90" t="n"/>
       <c r="T9" s="90" t="n"/>
       <c r="U9" s="90" t="n"/>
@@ -18911,7 +18919,11 @@
       <c r="O11" s="90" t="n"/>
       <c r="P11" s="90" t="n"/>
       <c r="Q11" s="90" t="n"/>
-      <c r="R11" s="90" t="n"/>
+      <c r="R11" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S11" s="90" t="n"/>
       <c r="T11" s="90" t="n"/>
       <c r="U11" s="90" t="n"/>
@@ -19020,7 +19032,11 @@
       <c r="O13" s="90" t="n"/>
       <c r="P13" s="90" t="n"/>
       <c r="Q13" s="90" t="n"/>
-      <c r="R13" s="90" t="n"/>
+      <c r="R13" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S13" s="90" t="n"/>
       <c r="T13" s="90" t="n"/>
       <c r="U13" s="90" t="n"/>
@@ -19129,7 +19145,11 @@
       <c r="O15" s="90" t="n"/>
       <c r="P15" s="90" t="n"/>
       <c r="Q15" s="90" t="n"/>
-      <c r="R15" s="90" t="n"/>
+      <c r="R15" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S15" s="90" t="n"/>
       <c r="T15" s="90" t="n"/>
       <c r="U15" s="90" t="n"/>
@@ -19238,7 +19258,11 @@
       <c r="O17" s="90" t="n"/>
       <c r="P17" s="90" t="n"/>
       <c r="Q17" s="90" t="n"/>
-      <c r="R17" s="90" t="n"/>
+      <c r="R17" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S17" s="90" t="n"/>
       <c r="T17" s="90" t="n"/>
       <c r="U17" s="90" t="n"/>
@@ -19347,7 +19371,11 @@
       <c r="O19" s="90" t="n"/>
       <c r="P19" s="90" t="n"/>
       <c r="Q19" s="90" t="n"/>
-      <c r="R19" s="90" t="n"/>
+      <c r="R19" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S19" s="90" t="n"/>
       <c r="T19" s="90" t="n"/>
       <c r="U19" s="90" t="n"/>
@@ -19456,7 +19484,11 @@
       <c r="O21" s="90" t="n"/>
       <c r="P21" s="90" t="n"/>
       <c r="Q21" s="90" t="n"/>
-      <c r="R21" s="90" t="n"/>
+      <c r="R21" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S21" s="90" t="n"/>
       <c r="T21" s="90" t="n"/>
       <c r="U21" s="90" t="n"/>
@@ -19566,7 +19598,11 @@
       <c r="O23" s="90" t="n"/>
       <c r="P23" s="90" t="n"/>
       <c r="Q23" s="90" t="n"/>
-      <c r="R23" s="90" t="n"/>
+      <c r="R23" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S23" s="90" t="n"/>
       <c r="T23" s="90" t="n"/>
       <c r="U23" s="90" t="n"/>
@@ -19670,7 +19706,11 @@
       <c r="O25" s="90" t="n"/>
       <c r="P25" s="90" t="n"/>
       <c r="Q25" s="90" t="n"/>
-      <c r="R25" s="90" t="n"/>
+      <c r="R25" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S25" s="90" t="n"/>
       <c r="T25" s="90" t="n"/>
       <c r="U25" s="90" t="n"/>
@@ -19774,7 +19814,11 @@
       <c r="O27" s="90" t="n"/>
       <c r="P27" s="90" t="n"/>
       <c r="Q27" s="90" t="n"/>
-      <c r="R27" s="90" t="n"/>
+      <c r="R27" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S27" s="90" t="n"/>
       <c r="T27" s="90" t="n"/>
       <c r="U27" s="90" t="n"/>
@@ -19880,7 +19924,11 @@
       <c r="O29" s="90" t="n"/>
       <c r="P29" s="90" t="n"/>
       <c r="Q29" s="90" t="n"/>
-      <c r="R29" s="90" t="n"/>
+      <c r="R29" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S29" s="90" t="n"/>
       <c r="T29" s="90" t="n"/>
       <c r="U29" s="90" t="n"/>
@@ -19986,7 +20034,11 @@
       <c r="O31" s="90" t="n"/>
       <c r="P31" s="90" t="n"/>
       <c r="Q31" s="90" t="n"/>
-      <c r="R31" s="90" t="n"/>
+      <c r="R31" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S31" s="90" t="n"/>
       <c r="T31" s="90" t="n"/>
       <c r="U31" s="90" t="n"/>
@@ -20077,7 +20129,7 @@
       </c>
       <c r="G33" s="97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 최근 교체일: 240902   다음 교체일: 241201</t>
+          <t>최근 교체일: 240912   다음 교체일: 241211</t>
         </is>
       </c>
       <c r="H33" s="77" t="n"/>
@@ -20142,7 +20194,7 @@
       </c>
       <c r="G34" s="97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 최근 교체일: 240902   다음 교체일: 241201</t>
+          <t>최근 교체일: 240912   다음 교체일: 241211</t>
         </is>
       </c>
       <c r="H34" s="77" t="n"/>
@@ -20208,7 +20260,7 @@
       </c>
       <c r="G35" s="62" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 최근 교체일: 240902   다음 교체일: 250902</t>
+          <t>최근 교체일: 240912   다음 교체일: 250912</t>
         </is>
       </c>
       <c r="H35" s="77" t="n"/>
@@ -20289,7 +20341,11 @@
       <c r="O36" s="34" t="n"/>
       <c r="P36" s="34" t="n"/>
       <c r="Q36" s="34" t="n"/>
-      <c r="R36" s="34" t="n"/>
+      <c r="R36" s="34" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
       <c r="S36" s="34" t="n"/>
       <c r="T36" s="34" t="n"/>
       <c r="U36" s="34" t="n"/>
@@ -20349,7 +20405,11 @@
       <c r="O37" s="19" t="n"/>
       <c r="P37" s="19" t="n"/>
       <c r="Q37" s="19" t="n"/>
-      <c r="R37" s="19" t="n"/>
+      <c r="R37" s="19" t="inlineStr">
+        <is>
+          <t>테스트</t>
+        </is>
+      </c>
       <c r="S37" s="19" t="n"/>
       <c r="T37" s="19" t="n"/>
       <c r="U37" s="19" t="n"/>
@@ -21303,7 +21363,11 @@
       <c r="O7" s="90" t="n"/>
       <c r="P7" s="90" t="n"/>
       <c r="Q7" s="90" t="n"/>
-      <c r="R7" s="90" t="n"/>
+      <c r="R7" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S7" s="90" t="n"/>
       <c r="T7" s="90" t="n"/>
       <c r="U7" s="90" t="n"/>
@@ -21402,7 +21466,11 @@
       <c r="O9" s="90" t="n"/>
       <c r="P9" s="90" t="n"/>
       <c r="Q9" s="90" t="n"/>
-      <c r="R9" s="90" t="n"/>
+      <c r="R9" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S9" s="90" t="n"/>
       <c r="T9" s="90" t="n"/>
       <c r="U9" s="90" t="n"/>
@@ -21512,7 +21580,11 @@
       <c r="O11" s="90" t="n"/>
       <c r="P11" s="90" t="n"/>
       <c r="Q11" s="90" t="n"/>
-      <c r="R11" s="90" t="n"/>
+      <c r="R11" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S11" s="90" t="n"/>
       <c r="T11" s="90" t="n"/>
       <c r="U11" s="90" t="n"/>
@@ -21612,7 +21684,11 @@
       <c r="O13" s="90" t="n"/>
       <c r="P13" s="90" t="n"/>
       <c r="Q13" s="90" t="n"/>
-      <c r="R13" s="90" t="n"/>
+      <c r="R13" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S13" s="90" t="n"/>
       <c r="T13" s="90" t="n"/>
       <c r="U13" s="90" t="n"/>
@@ -21723,7 +21799,11 @@
       <c r="O15" s="90" t="n"/>
       <c r="P15" s="90" t="n"/>
       <c r="Q15" s="90" t="n"/>
-      <c r="R15" s="90" t="n"/>
+      <c r="R15" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S15" s="90" t="n"/>
       <c r="T15" s="90" t="n"/>
       <c r="U15" s="90" t="n"/>
@@ -21823,7 +21903,11 @@
       <c r="O17" s="90" t="n"/>
       <c r="P17" s="90" t="n"/>
       <c r="Q17" s="90" t="n"/>
-      <c r="R17" s="90" t="n"/>
+      <c r="R17" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S17" s="90" t="n"/>
       <c r="T17" s="90" t="n"/>
       <c r="U17" s="90" t="n"/>
@@ -21933,7 +22017,11 @@
       <c r="O19" s="90" t="n"/>
       <c r="P19" s="90" t="n"/>
       <c r="Q19" s="90" t="n"/>
-      <c r="R19" s="90" t="n"/>
+      <c r="R19" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S19" s="90" t="n"/>
       <c r="T19" s="90" t="n"/>
       <c r="U19" s="90" t="n"/>
@@ -22033,7 +22121,11 @@
       <c r="O21" s="90" t="n"/>
       <c r="P21" s="90" t="n"/>
       <c r="Q21" s="90" t="n"/>
-      <c r="R21" s="90" t="n"/>
+      <c r="R21" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S21" s="90" t="n"/>
       <c r="T21" s="90" t="n"/>
       <c r="U21" s="90" t="n"/>
@@ -22144,7 +22236,11 @@
       <c r="O23" s="90" t="n"/>
       <c r="P23" s="90" t="n"/>
       <c r="Q23" s="90" t="n"/>
-      <c r="R23" s="90" t="n"/>
+      <c r="R23" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S23" s="90" t="n"/>
       <c r="T23" s="90" t="n"/>
       <c r="U23" s="90" t="n"/>
@@ -22245,7 +22341,11 @@
       <c r="O25" s="90" t="n"/>
       <c r="P25" s="90" t="n"/>
       <c r="Q25" s="90" t="n"/>
-      <c r="R25" s="90" t="n"/>
+      <c r="R25" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S25" s="90" t="n"/>
       <c r="T25" s="90" t="n"/>
       <c r="U25" s="90" t="n"/>
@@ -22357,7 +22457,11 @@
       <c r="O27" s="90" t="n"/>
       <c r="P27" s="90" t="n"/>
       <c r="Q27" s="90" t="n"/>
-      <c r="R27" s="90" t="n"/>
+      <c r="R27" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S27" s="90" t="n"/>
       <c r="T27" s="90" t="n"/>
       <c r="U27" s="90" t="n"/>
@@ -22457,7 +22561,11 @@
       <c r="O29" s="90" t="n"/>
       <c r="P29" s="90" t="n"/>
       <c r="Q29" s="90" t="n"/>
-      <c r="R29" s="90" t="n"/>
+      <c r="R29" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S29" s="90" t="n"/>
       <c r="T29" s="90" t="n"/>
       <c r="U29" s="90" t="n"/>
@@ -22567,7 +22675,11 @@
       <c r="O31" s="90" t="n"/>
       <c r="P31" s="90" t="n"/>
       <c r="Q31" s="90" t="n"/>
-      <c r="R31" s="90" t="n"/>
+      <c r="R31" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S31" s="90" t="n"/>
       <c r="T31" s="90" t="n"/>
       <c r="U31" s="90" t="n"/>
@@ -22667,7 +22779,11 @@
       <c r="O33" s="90" t="n"/>
       <c r="P33" s="90" t="n"/>
       <c r="Q33" s="90" t="n"/>
-      <c r="R33" s="90" t="n"/>
+      <c r="R33" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S33" s="90" t="n"/>
       <c r="T33" s="90" t="n"/>
       <c r="U33" s="90" t="n"/>
@@ -22778,7 +22894,11 @@
       <c r="O35" s="90" t="n"/>
       <c r="P35" s="90" t="n"/>
       <c r="Q35" s="90" t="n"/>
-      <c r="R35" s="90" t="n"/>
+      <c r="R35" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S35" s="90" t="n"/>
       <c r="T35" s="90" t="n"/>
       <c r="U35" s="90" t="n"/>
@@ -22878,7 +22998,11 @@
       <c r="O37" s="90" t="n"/>
       <c r="P37" s="90" t="n"/>
       <c r="Q37" s="90" t="n"/>
-      <c r="R37" s="90" t="n"/>
+      <c r="R37" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S37" s="90" t="n"/>
       <c r="T37" s="90" t="n"/>
       <c r="U37" s="90" t="n"/>
@@ -22988,7 +23112,11 @@
       <c r="O39" s="90" t="n"/>
       <c r="P39" s="90" t="n"/>
       <c r="Q39" s="90" t="n"/>
-      <c r="R39" s="90" t="n"/>
+      <c r="R39" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S39" s="90" t="n"/>
       <c r="T39" s="90" t="n"/>
       <c r="U39" s="90" t="n"/>
@@ -23088,7 +23216,11 @@
       <c r="O41" s="90" t="n"/>
       <c r="P41" s="90" t="n"/>
       <c r="Q41" s="90" t="n"/>
-      <c r="R41" s="90" t="n"/>
+      <c r="R41" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S41" s="90" t="n"/>
       <c r="T41" s="90" t="n"/>
       <c r="U41" s="90" t="n"/>
@@ -23198,7 +23330,11 @@
       <c r="O43" s="90" t="n"/>
       <c r="P43" s="90" t="n"/>
       <c r="Q43" s="90" t="n"/>
-      <c r="R43" s="90" t="n"/>
+      <c r="R43" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S43" s="90" t="n"/>
       <c r="T43" s="90" t="n"/>
       <c r="U43" s="90" t="n"/>
@@ -23299,7 +23435,11 @@
       <c r="O45" s="90" t="n"/>
       <c r="P45" s="90" t="n"/>
       <c r="Q45" s="90" t="n"/>
-      <c r="R45" s="90" t="n"/>
+      <c r="R45" s="90" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
       <c r="S45" s="90" t="n"/>
       <c r="T45" s="90" t="n"/>
       <c r="U45" s="90" t="n"/>
